--- a/xlsx/猶太教_intext.xlsx
+++ b/xlsx/猶太教_intext.xlsx
@@ -29,7 +29,7 @@
     <t>猶太人</t>
   </si>
   <si>
-    <t>政策_政策_美國_猶太教</t>
+    <t>体育运动_体育运动_伊朗_猶太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
